--- a/classification/droptc/sentence/bert-base-uncased/unfreeze/52680723/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/unfreeze/52680723/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.99846351146698</v>
+        <v>0.9997660517692566</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9866277575492859</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7354205250740051</v>
+        <v>0.997581958770752</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9983661770820618</v>
+        <v>0.9972153902053833</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.998188316822052</v>
+        <v>0.9999611377716064</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8140556216239929</v>
+        <v>0.9999598264694214</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9983137845993042</v>
+        <v>0.9999597072601318</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9919365644454956</v>
+        <v>0.9999570846557617</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9970417618751526</v>
+        <v>0.9999597072601318</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9807223677635193</v>
+        <v>0.9999535083770752</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9984403252601624</v>
+        <v>0.9999639987945557</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9984197616577148</v>
+        <v>0.999327540397644</v>
       </c>
     </row>
     <row r="14">
@@ -819,14 +819,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8315182328224182</v>
+        <v>0.9999412298202515</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9830248355865479</v>
+        <v>0.99302738904953</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9805305004119873</v>
+        <v>0.9999624490737915</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.998481810092926</v>
+        <v>0.9999545812606812</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9978947043418884</v>
+        <v>0.9841322898864746</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9983661770820618</v>
+        <v>0.9999593496322632</v>
       </c>
     </row>
     <row r="20">
@@ -987,14 +987,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6378154158592224</v>
+        <v>0.9999464750289917</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9984439015388489</v>
+        <v>0.9999587535858154</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9984222650527954</v>
+        <v>0.9999558925628662</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9982852339744568</v>
+        <v>0.9999613761901855</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9984257221221924</v>
+        <v>0.9999361038208008</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9983797073364258</v>
+        <v>0.9861415028572083</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9868226051330566</v>
+        <v>0.9614338874816895</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9985044002532959</v>
+        <v>0.9999566078186035</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9984149932861328</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="29">
@@ -1239,14 +1239,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9702646136283875</v>
+        <v>0.9999537467956543</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9983301758766174</v>
+        <v>0.9999579191207886</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9890601634979248</v>
+        <v>0.99994957447052</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9926431775093079</v>
+        <v>0.9994113445281982</v>
       </c>
     </row>
     <row r="33">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9587609767913818</v>
+        <v>0.9990597367286682</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9980443716049194</v>
+        <v>0.9796693921089172</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9873693585395813</v>
+        <v>0.9993701577186584</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9983974099159241</v>
+        <v>0.9999585151672363</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5890519022941589</v>
+        <v>0.9992976188659668</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9984982013702393</v>
+        <v>0.9999555349349976</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9984179735183716</v>
+        <v>0.9763328433036804</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9869469404220581</v>
+        <v>0.964583694934845</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9205813407897949</v>
+        <v>0.9999592304229736</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9984509944915771</v>
+        <v>0.5077759623527527</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9984928369522095</v>
+        <v>0.9880800843238831</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9985044002532959</v>
+        <v>0.9993614554405212</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9984527826309204</v>
+        <v>0.9992619156837463</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9984683394432068</v>
+        <v>0.9869648218154907</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E47" t="b">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9483147263526917</v>
+        <v>0.5243092179298401</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.998445451259613</v>
+        <v>0.978239119052887</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9862049221992493</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9984908103942871</v>
+        <v>0.998846173286438</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9982524514198303</v>
+        <v>0.966862678527832</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9900373220443726</v>
+        <v>0.9999626874923706</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9880749583244324</v>
+        <v>0.998846173286438</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9984021782875061</v>
+        <v>0.998779833316803</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9982866644859314</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9978691339492798</v>
+        <v>0.9999555349349976</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9897506833076477</v>
+        <v>0.9999591112136841</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9914299845695496</v>
+        <v>0.9990689158439636</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9891194105148315</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9984374642372131</v>
+        <v>0.9999032020568848</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9976696372032166</v>
+        <v>0.99996018409729</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9956178665161133</v>
+        <v>0.9999629259109497</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9983865022659302</v>
+        <v>0.9992362260818481</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9649599194526672</v>
+        <v>0.7334637641906738</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.998456597328186</v>
+        <v>0.9993671774864197</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9982249140739441</v>
+        <v>0.9993671774864197</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9984827637672424</v>
+        <v>0.9992033839225769</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9982107877731323</v>
+        <v>0.9993671774864197</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9972720742225647</v>
+        <v>0.9997004270553589</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9805287718772888</v>
+        <v>0.9999642372131348</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9982272982597351</v>
+        <v>0.997958779335022</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9926388263702393</v>
+        <v>0.9999603033065796</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.987809419631958</v>
+        <v>0.9994041919708252</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9985062479972839</v>
+        <v>0.9999015331268311</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4424389898777008</v>
+        <v>0.9999607801437378</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9983558058738708</v>
+        <v>0.9994041919708252</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9810592532157898</v>
+        <v>0.9999488592147827</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9977816939353943</v>
+        <v>0.9994041919708252</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9982879757881165</v>
+        <v>0.9999597072601318</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9926431775093079</v>
+        <v>0.9993046522140503</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9982879757881165</v>
+        <v>0.999956488609314</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9926431775093079</v>
+        <v>0.9993046522140503</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9814594984054565</v>
+        <v>0.9999569654464722</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9983501434326172</v>
+        <v>0.9999569654464722</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9870369434356689</v>
+        <v>0.9999595880508423</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.998075008392334</v>
+        <v>0.9995961785316467</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9984879493713379</v>
+        <v>0.9968218803405762</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.991615355014801</v>
+        <v>0.9994091987609863</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9985044002532959</v>
+        <v>0.9999480247497559</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.998202919960022</v>
+        <v>0.9999580383300781</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9912998080253601</v>
+        <v>0.9999581575393677</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9924557209014893</v>
+        <v>0.9999592304229736</v>
       </c>
     </row>
     <row r="93">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9965634942054749</v>
+        <v>0.9999591112136841</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9979111552238464</v>
+        <v>0.9999589920043945</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9710533022880554</v>
+        <v>0.9999594688415527</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.850816547870636</v>
+        <v>0.9999551773071289</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9985044002532959</v>
+        <v>0.9956429004669189</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9817079305648804</v>
+        <v>0.9999632835388184</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9919365644454956</v>
+        <v>0.9766052961349487</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9826566576957703</v>
+        <v>0.9999551773071289</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9912998080253601</v>
+        <v>0.9999604225158691</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9984184503555298</v>
+        <v>0.8639141321182251</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9983063936233521</v>
+        <v>0.9979559183120728</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9983521699905396</v>
+        <v>0.9999589920043945</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7304702997207642</v>
+        <v>0.9996894598007202</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.998456597328186</v>
+        <v>0.9999586343765259</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9984935522079468</v>
+        <v>0.9860413670539856</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9984384179115295</v>
+        <v>0.9990888833999634</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8589755892753601</v>
+        <v>0.9999535083770752</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9984618425369263</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9984579086303711</v>
+        <v>0.9988662004470825</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9918707609176636</v>
+        <v>0.9986752867698669</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9870369434356689</v>
+        <v>0.9993056058883667</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9985044002532959</v>
+        <v>0.9999603033065796</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9985044002532959</v>
+        <v>0.9994569420814514</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9984545707702637</v>
+        <v>0.4113374054431915</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9870369434356689</v>
+        <v>0.9995976090431213</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.998490571975708</v>
+        <v>0.9905056357383728</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9984240531921387</v>
+        <v>0.7699122428894043</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9985044002532959</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.881860613822937</v>
+        <v>0.9996364116668701</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9981774091720581</v>
+        <v>0.9999613761901855</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9984112977981567</v>
+        <v>0.9996364116668701</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9880849719047546</v>
+        <v>0.9999613761901855</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9884793162345886</v>
+        <v>0.9996364116668701</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9983552098274231</v>
+        <v>0.99996018409729</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9981268048286438</v>
+        <v>0.9948596954345703</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9979161620140076</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9958428740501404</v>
+        <v>0.9815754890441895</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.998390793800354</v>
+        <v>0.9999439716339111</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9984104633331299</v>
+        <v>0.9999592304229736</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9982879757881165</v>
+        <v>0.9741047024726868</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9924157857894897</v>
+        <v>0.9999592304229736</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9982265830039978</v>
+        <v>0.999930739402771</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9333024024963379</v>
+        <v>0.9999617338180542</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.998461127281189</v>
+        <v>0.9950149655342102</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9981557726860046</v>
+        <v>0.9999607801437378</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9843769073486328</v>
+        <v>0.9995135068893433</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9974651336669922</v>
+        <v>0.9999585151672363</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9800795912742615</v>
+        <v>0.99996018409729</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9652478694915771</v>
+        <v>0.5946004986763</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9269570112228394</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9984846711158752</v>
+        <v>0.99936443567276</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.985217273235321</v>
+        <v>0.9999558925628662</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9878005981445312</v>
+        <v>0.99936443567276</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9915217161178589</v>
+        <v>0.9999580383300781</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9984049201011658</v>
+        <v>0.9997004270553589</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9984257221221924</v>
+        <v>0.9999638795852661</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9805151224136353</v>
+        <v>0.9990033507347107</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9984861016273499</v>
+        <v>0.9994551539421082</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9982979893684387</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9919365644454956</v>
+        <v>0.8998055458068848</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.98823082447052</v>
+        <v>0.9999610185623169</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9984210729598999</v>
+        <v>0.9992699027061462</v>
       </c>
     </row>
     <row r="155">
@@ -4767,14 +4767,14 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9338819980621338</v>
+        <v>0.9999603033065796</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9984801411628723</v>
+        <v>0.999242901802063</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.998439610004425</v>
+        <v>0.9999614953994751</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9882535934448242</v>
+        <v>0.999196469783783</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9982908368110657</v>
+        <v>0.9999641180038452</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9918570518493652</v>
+        <v>0.9907819628715515</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9878005981445312</v>
+        <v>0.9999566078186035</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.998359739780426</v>
+        <v>0.9980446100234985</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9981592297554016</v>
+        <v>0.9999479055404663</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.998329222202301</v>
+        <v>0.998766303062439</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9983038902282715</v>
+        <v>0.9999600648880005</v>
       </c>
     </row>
     <row r="166">
@@ -5075,14 +5075,14 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9984018206596375</v>
+        <v>0.772665798664093</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9984437823295593</v>
+        <v>0.9982098340988159</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9980180263519287</v>
+        <v>0.9943642616271973</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9884793162345886</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.5787442922592163</v>
+        <v>0.9982098340988159</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9983592629432678</v>
+        <v>0.9874147772789001</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.998071014881134</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9869137406349182</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9983910322189331</v>
+        <v>0.9999599456787109</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9984815716743469</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9879827499389648</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9984684586524963</v>
+        <v>0.9999599456787109</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9880749583244324</v>
+        <v>0.9999538660049438</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9871250987052917</v>
+        <v>0.9999587535858154</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9984499216079712</v>
+        <v>0.9999581575393677</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9984251260757446</v>
+        <v>0.9999585151672363</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9984437823295593</v>
+        <v>0.9999595880508423</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9984486103057861</v>
+        <v>0.9996706247329712</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9984183311462402</v>
+        <v>0.9999620914459229</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9980067610740662</v>
+        <v>0.9999544620513916</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9334167838096619</v>
+        <v>0.9999586343765259</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9983371496200562</v>
+        <v>0.9999392032623291</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.99073326587677</v>
+        <v>0.9999220371246338</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9973108768463135</v>
+        <v>0.9999325275421143</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9534584879875183</v>
+        <v>0.9999527931213379</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9844406843185425</v>
+        <v>0.9958264231681824</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9919180274009705</v>
+        <v>0.9999574422836304</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9982249140739441</v>
+        <v>0.9999507665634155</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9970980882644653</v>
+        <v>0.9996227025985718</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9897247552871704</v>
+        <v>0.9907310605049133</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9891194105148315</v>
+        <v>0.999962329864502</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9683835506439209</v>
+        <v>0.999955415725708</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9984328150749207</v>
+        <v>0.9999297857284546</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9983092546463013</v>
+        <v>0.999962329864502</v>
       </c>
     </row>
     <row r="200">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="E200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9810115098953247</v>
+        <v>0.99796462059021</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9984909296035767</v>
+        <v>0.9999629259109497</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.4176239967346191</v>
+        <v>0.9999616146087646</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9984960556030273</v>
+        <v>0.9998148083686829</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9888120889663696</v>
+        <v>0.99897301197052</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9985044002532959</v>
+        <v>0.99916672706604</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9982800483703613</v>
+        <v>0.9999618530273438</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9847831130027771</v>
+        <v>0.996601939201355</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9985044002532959</v>
+        <v>0.9999622106552124</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.896290123462677</v>
+        <v>0.9749410152435303</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8977978825569153</v>
+        <v>0.99996018409729</v>
       </c>
     </row>
   </sheetData>
